--- a/aulas/1408/Projeto 1.xlsx
+++ b/aulas/1408/Projeto 1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diegofarias\Documents\GitHub\Arquitetura-organizacional\aulas\1408\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micro\Documents\GitHub\Arquitetura-organizacional\aulas\1408\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3DFBA38-EC5D-4BDA-9E6D-572073FDBF46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3204504A-ABA3-491F-83E0-3D692A692253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D6718620-A97C-4584-9DAD-E7FF50CA9ADC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{D6718620-A97C-4584-9DAD-E7FF50CA9ADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Funcional" sheetId="4" r:id="rId1"/>
     <sheet name="Staff" sheetId="3" r:id="rId2"/>
     <sheet name="Territorial" sheetId="5" r:id="rId3"/>
     <sheet name="Por clientes" sheetId="6" r:id="rId4"/>
+    <sheet name="Por projetos" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -46,9 +47,69 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -58,11 +119,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -301,15 +378,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>205217</xdr:colOff>
+      <xdr:colOff>238835</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>44160</xdr:rowOff>
+      <xdr:rowOff>10542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325581</xdr:colOff>
+      <xdr:colOff>359199</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>129886</xdr:rowOff>
+      <xdr:rowOff>96268</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -324,8 +401,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5320142" y="1187160"/>
-          <a:ext cx="863314" cy="466726"/>
+          <a:off x="5348717" y="1153542"/>
+          <a:ext cx="859953" cy="466726"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -521,13 +598,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>142465</xdr:colOff>
+      <xdr:colOff>209701</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>166303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>348553</xdr:colOff>
+      <xdr:colOff>415789</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>80580</xdr:rowOff>
     </xdr:to>
@@ -544,7 +621,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5252347" y="2295421"/>
+          <a:off x="5319583" y="2295421"/>
           <a:ext cx="945677" cy="485777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -746,13 +823,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>46250</xdr:colOff>
+      <xdr:colOff>113486</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>187034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>429236</xdr:colOff>
+      <xdr:colOff>496472</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>91785</xdr:rowOff>
     </xdr:to>
@@ -769,7 +846,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5156132" y="1711034"/>
+          <a:off x="5223368" y="1711034"/>
           <a:ext cx="1122575" cy="509869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -971,15 +1048,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>220807</xdr:colOff>
+      <xdr:colOff>344072</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>44160</xdr:rowOff>
+      <xdr:rowOff>77778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>303067</xdr:colOff>
+      <xdr:colOff>426332</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>139411</xdr:rowOff>
+      <xdr:rowOff>173029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -994,8 +1071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6078682" y="806160"/>
-          <a:ext cx="891885" cy="285751"/>
+          <a:off x="6193543" y="839778"/>
+          <a:ext cx="889083" cy="285751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,16 +1357,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>349113</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>167170</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>662877</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>614285</xdr:colOff>
+      <xdr:colOff>121226</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>81446</xdr:rowOff>
+      <xdr:rowOff>137475</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1304,7 +1381,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7005407" y="1119670"/>
+          <a:off x="6512348" y="1175699"/>
           <a:ext cx="1083202" cy="485776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1367,15 +1444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>549850</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>188769</xdr:rowOff>
+      <xdr:colOff>269703</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>43092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>845992</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>17319</xdr:rowOff>
+      <xdr:colOff>565845</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>62142</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1390,8 +1467,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3130259" y="760269"/>
-          <a:ext cx="1075460" cy="400050"/>
+          <a:off x="2847056" y="1186092"/>
+          <a:ext cx="1080554" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1445,15 +1522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>782426</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>93518</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>218668</xdr:colOff>
+      <xdr:colOff>479867</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>150669</xdr:rowOff>
+      <xdr:rowOff>149547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>655698</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>16198</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1468,7 +1545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4995838" y="93518"/>
+          <a:off x="4693279" y="530547"/>
           <a:ext cx="1072301" cy="438151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1530,16 +1607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363479</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>341067</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>99780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>524640</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>156932</xdr:rowOff>
+      <xdr:colOff>748758</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33667</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1554,7 +1631,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8532567" y="1052280"/>
+          <a:off x="7837803" y="1119515"/>
           <a:ext cx="1102455" cy="628652"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1767,15 +1844,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>205217</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>44160</xdr:rowOff>
+      <xdr:colOff>283658</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>21748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325581</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>129886</xdr:rowOff>
+      <xdr:colOff>404022</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>73856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1790,8 +1867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5314081" y="1187160"/>
-          <a:ext cx="865045" cy="466726"/>
+          <a:off x="5393540" y="1736248"/>
+          <a:ext cx="859953" cy="466726"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1840,13 +1917,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>258040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>90055</xdr:rowOff>
+      <xdr:rowOff>11614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>51956</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>164015</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1861,8 +1938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10285267" y="852055"/>
-          <a:ext cx="871972" cy="342901"/>
+          <a:off x="10287305" y="773614"/>
+          <a:ext cx="870952" cy="342901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1987,15 +2064,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>52818</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177509</xdr:rowOff>
+      <xdr:colOff>232112</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>258906</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91786</xdr:rowOff>
+      <xdr:colOff>438200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2139</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2010,8 +2087,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5161682" y="2307645"/>
-          <a:ext cx="950769" cy="485777"/>
+          <a:off x="5341994" y="2978980"/>
+          <a:ext cx="945677" cy="485777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2062,15 +2139,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>142314</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100293</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2085,8 +2162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1428750" y="3057524"/>
-          <a:ext cx="781050" cy="476252"/>
+          <a:off x="1352549" y="3467659"/>
+          <a:ext cx="776568" cy="476252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2137,15 +2214,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>142314</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>361389</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2160,8 +2237,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1428750" y="2019299"/>
-          <a:ext cx="828675" cy="285752"/>
+          <a:off x="1352549" y="2433916"/>
+          <a:ext cx="824193" cy="281270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2211,16 +2288,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>886690</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>187034</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>147102</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>373206</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>91785</xdr:rowOff>
+      <xdr:colOff>530088</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136608</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2235,8 +2312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095008" y="1711034"/>
-          <a:ext cx="1131743" cy="510887"/>
+          <a:off x="5256984" y="2327357"/>
+          <a:ext cx="1122575" cy="509869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2287,15 +2364,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>437589</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90767</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2310,8 +2387,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295401" y="2466974"/>
-          <a:ext cx="1038224" cy="485776"/>
+          <a:off x="1219200" y="2877109"/>
+          <a:ext cx="1033742" cy="485776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2362,15 +2439,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>113740</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>399489</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2385,8 +2462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1400176" y="1609724"/>
-          <a:ext cx="895349" cy="285751"/>
+          <a:off x="1323975" y="2024341"/>
+          <a:ext cx="890867" cy="285751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2436,16 +2513,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276837</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>189837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>220807</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>44160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>303067</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>139411</xdr:rowOff>
+      <xdr:colOff>426331</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>94588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2460,8 +2537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6074352" y="806160"/>
-          <a:ext cx="896215" cy="285751"/>
+          <a:off x="5386719" y="951837"/>
+          <a:ext cx="889083" cy="285751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2514,16 +2591,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247091</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>537322</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>159124</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2538,7 +2615,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2143126" y="781049"/>
+          <a:off x="1457326" y="825873"/>
           <a:ext cx="895349" cy="285751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2593,15 +2670,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>94690</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>523314</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5042</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2616,8 +2693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381126" y="1209674"/>
-          <a:ext cx="1038224" cy="285751"/>
+          <a:off x="1304925" y="1624291"/>
+          <a:ext cx="1033742" cy="285751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2746,223 +2823,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>209652</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>126474</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>349931</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>31226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Retângulo 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5057677A-3073-4E62-8D44-444ECFAD4A28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11458677" y="1269474"/>
-          <a:ext cx="749879" cy="285752"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Vendas</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>51088</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>118629</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>277092</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>61480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Retângulo 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C37F281-4E09-48B7-9ED1-1CF711FEFAF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11300113" y="1642629"/>
-          <a:ext cx="835604" cy="323851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Marketing</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>108238</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>156729</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>305667</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>80530</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Retângulo 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E227C8-B9E7-48B4-98A5-E2D8B093C5A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11357263" y="2061729"/>
-          <a:ext cx="807029" cy="342901"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Comercial</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>527238</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -3979,223 +3839,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>209652</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>126474</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>349931</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>31226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC90D421-2DB0-4FC5-B91C-224E0A3261B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11458677" y="1269474"/>
-          <a:ext cx="749879" cy="285752"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Vendas</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>51088</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>118629</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>277092</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>61480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61068DF4-EDC5-406C-B8DD-E11BB24F5EE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11300113" y="1642629"/>
-          <a:ext cx="835604" cy="323851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Marketing</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>108238</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>156729</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>305667</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>80530</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Retângulo 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403EF6DC-E6E7-472A-9D03-CE10A9D5B6C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11357263" y="2061729"/>
-          <a:ext cx="807029" cy="342901"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Comercial</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>193303</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -4891,6 +4534,1282 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3683389C-E042-4F2A-8854-C27196772098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="200025"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Diretoria</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> executiva</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>394447</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE67607-9E20-4972-89E3-1F188BA0BA88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="904875"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Plataforma Mundo melhor</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>461122</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC8985E-FBF8-44DC-9DA2-488A62C39AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="895350"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>VOA</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>575422</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9209D9B2-DF3B-499E-8174-1F9C3A7DF432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="895350"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AMA</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>375397</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Retângulo 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13395CF-3811-4238-9CDC-5D3E35D9CF33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="1466850"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Comitê de gente</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>384922</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Retângulo 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88BFE723-67E7-41AC-AB4A-7EDAE46B9BA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="2076450"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Conselho</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> de Administração</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>384922</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Retângulo 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA242EC2-96B8-4BD6-A2EF-4C6CCAB91F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="2695575"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Comitê de operações e finanças</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>394447</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Retângulo 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBAF26E-1175-4A97-B15C-98F2E9A624C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="1504950"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TI</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403972</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Retângulo 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61D5373-846B-4A37-B1F3-60D7EE02C914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="2076450"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Jurídico</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403972</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Retângulo 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0E3C60-B09B-4AD2-824A-C9F8E3C940C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="2695575"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Marketing</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>442072</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Retângulo 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18787AF7-A53B-4EB9-A35B-59CE2FCFAE7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152775" y="1485900"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Logística</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>451597</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Retângulo 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56607540-4944-4C4C-8E53-87191D3DB408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="2057400"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Financeiro</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>451597</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Retângulo 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08A3DB9-7157-4AB3-99FD-21C10C134EDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="2676525"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Relações corporativas</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>565897</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Retângulo 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4B1655-E81B-4BB7-A704-E35D138E6ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="1495425"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Comitê de gente</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>575422</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Retângulo 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E617BFD4-6B26-40DB-8C6F-8EF4467C2FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="2066925"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Gente e gestão</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>575422</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Retângulo 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E7E074-2C1D-4A05-A74C-E29064B98DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="2686050"/>
+          <a:ext cx="946897" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Industrial</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5200,10 +6119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB9A5E3-361C-4C66-9D22-16E927AADAE1}">
-  <dimension ref="J1:N11"/>
+  <dimension ref="E1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5219,55 +6138,106 @@
     <col min="12" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:14" x14ac:dyDescent="0.25">
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:14" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:14" x14ac:dyDescent="0.25">
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="J7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="8"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="11" spans="10:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5277,10 +6247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC1D04D-7518-4D57-A012-7C7B29EACFBF}">
-  <dimension ref="J1:N11"/>
+  <dimension ref="C1:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5296,55 +6266,127 @@
     <col min="12" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="H6" s="10"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J7" s="1"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="11" spans="10:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="K11" s="1"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5354,10 +6396,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B043E-08E8-4C24-A403-277EFBB22BCC}">
-  <dimension ref="J1:N11"/>
+  <dimension ref="C1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5373,55 +6415,102 @@
     <col min="12" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J5" s="1"/>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J6" s="1"/>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J7" s="1"/>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="8"/>
       <c r="L7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="11" spans="10:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5431,10 +6520,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E00467-1E6C-49B0-9499-C8633735619B}">
-  <dimension ref="J1:N11"/>
+  <dimension ref="C1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5450,55 +6539,195 @@
     <col min="12" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="J7" s="1"/>
       <c r="L7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="11" spans="10:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B56628-8528-4D34-834F-97916AD633F1}">
+  <dimension ref="C3:H17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="11"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="11"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
